--- a/universities_courses.xlsx
+++ b/universities_courses.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\betto\Desktop\Foreign Dreality\Universities &amp; Courses\Mechanical Engineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\betto\Desktop\Foreign Dreality\GUI\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEE3778-0AF5-4541-8243-843DC30264B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC745DAA-080B-444D-8E61-3A4E88BCA1EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-285" windowWidth="29040" windowHeight="15840" xr2:uid="{024E68FD-C9DB-4C78-9B9C-7F4EE35C43D3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1" xr2:uid="{024E68FD-C9DB-4C78-9B9C-7F4EE35C43D3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data base" sheetId="2" r:id="rId1"/>
+    <sheet name="Drop Down" sheetId="3" r:id="rId1"/>
+    <sheet name="Data base" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data base'!$A$1:$N$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Data base'!$A$1:$N$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="196">
   <si>
     <t>Application Deadline</t>
   </si>
@@ -141,12 +142,6 @@
     <t>Airport Transport and Logistics</t>
   </si>
   <si>
-    <t>Distributed System Engineering</t>
-  </si>
-  <si>
-    <t>Organic and Molecular Electronics</t>
-  </si>
-  <si>
     <t>Advances Materials and Processes</t>
   </si>
   <si>
@@ -162,15 +157,6 @@
     <t>Nanotechnology</t>
   </si>
   <si>
-    <t>Energy and Environmental Management (Developing Countries)</t>
-  </si>
-  <si>
-    <t>Applied Bio and Food Sciences</t>
-  </si>
-  <si>
-    <t>Renewable Energy</t>
-  </si>
-  <si>
     <t>Advanced Materials Analysis</t>
   </si>
   <si>
@@ -192,15 +178,9 @@
     <t>Joint European Master in Naval and Offshore Technology</t>
   </si>
   <si>
-    <t>Enery Engineering and Management</t>
-  </si>
-  <si>
     <t>Management of Product Development</t>
   </si>
   <si>
-    <t>Mobilitz Systems Engineering and Management (MSEM)</t>
-  </si>
-  <si>
     <t>Production and Operations Management</t>
   </si>
   <si>
@@ -237,18 +217,9 @@
     <t>Materials Science</t>
   </si>
   <si>
-    <t>Engineering Sciences</t>
-  </si>
-  <si>
-    <t>Wood Technology</t>
-  </si>
-  <si>
     <t>Emship - Integrated Advance Ship Design</t>
   </si>
   <si>
-    <t>Mechatronics and Robotics</t>
-  </si>
-  <si>
     <t>Renewable Energy and E-Mobility</t>
   </si>
   <si>
@@ -375,24 +346,12 @@
     <t>TU Dortmund</t>
   </si>
   <si>
-    <t>Dortmund Unoversity of Applied Sciences and Arts</t>
-  </si>
-  <si>
     <t>TU Dresden</t>
   </si>
   <si>
     <t>University of Erlangen-Nurenberg</t>
   </si>
   <si>
-    <t xml:space="preserve"> Europa-Univeritat Flensburg</t>
-  </si>
-  <si>
-    <t>Hochschule Flensburg</t>
-  </si>
-  <si>
-    <t>Frankfurt University of Applied Sciences</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Freiberg University of Mining and Technology</t>
   </si>
   <si>
@@ -435,15 +394,9 @@
     <t>Paderborn University</t>
   </si>
   <si>
-    <t>University of Applied Sciences Rosenheim</t>
-  </si>
-  <si>
     <t xml:space="preserve"> University of Rostock</t>
   </si>
   <si>
-    <t xml:space="preserve"> Hochschule Schmalkalden</t>
-  </si>
-  <si>
     <t xml:space="preserve"> University of Siegen</t>
   </si>
   <si>
@@ -513,9 +466,6 @@
     <t>Ruhr University Bochum</t>
   </si>
   <si>
-    <t>#Semesters</t>
-  </si>
-  <si>
     <t>5900/S</t>
   </si>
   <si>
@@ -652,6 +602,21 @@
   </si>
   <si>
     <t>Material Science and Engineering</t>
+  </si>
+  <si>
+    <t>Winter and Summer</t>
+  </si>
+  <si>
+    <t>Semesters</t>
+  </si>
+  <si>
+    <t>Dortmund University of Applied Sciences and Arts</t>
+  </si>
+  <si>
+    <t>Energy Engineering and Management</t>
+  </si>
+  <si>
+    <t>Mobility Systems Engineering and Management (MSEM)</t>
   </si>
 </sst>
 </file>
@@ -661,7 +626,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#.##0\ [$€-1];[Red]\-#.##0\ [$€-1]"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,13 +651,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -774,7 +732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -836,16 +794,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -856,9 +814,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1208,19 +1163,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEDA937-EC80-4C00-BA8F-FB1F645247A0}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8488F6-4294-3B41-8B0B-CB6ED2ABB72C}">
-  <dimension ref="A1:AA110"/>
+  <dimension ref="A1:AA100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.7109375" style="18" customWidth="1"/>
     <col min="2" max="2" width="48.7109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="1" customWidth="1"/>
@@ -1249,49 +1264,49 @@
   <sheetData>
     <row r="1" spans="1:27" s="24" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="J1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="P1" s="23"/>
       <c r="Q1" s="23"/>
@@ -1308,10 +1323,10 @@
     </row>
     <row r="2" spans="1:27" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C2" s="25">
         <v>4</v>
@@ -1326,38 +1341,38 @@
         <v>45352</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O2" s="37" t="s">
-        <v>179</v>
+        <v>165</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>162</v>
       </c>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
     <row r="3" spans="1:27" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>4</v>
@@ -1375,43 +1390,45 @@
         <v>45352</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="J3" s="26"/>
       <c r="K3" s="26" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="L3" s="26"/>
       <c r="O3" s="4" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="V3" s="6"/>
     </row>
     <row r="4" spans="1:27" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C4" s="25">
         <v>4</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="29"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
       <c r="H4" s="26" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
@@ -1421,7 +1438,7 @@
     </row>
     <row r="5" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>6</v>
@@ -1430,18 +1447,20 @@
         <v>4</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="31">
+        <v>191</v>
+      </c>
+      <c r="E5" s="30">
         <v>45630</v>
       </c>
       <c r="F5" s="27">
         <v>45352</v>
       </c>
       <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="H5" s="26" t="s">
+        <v>157</v>
+      </c>
       <c r="I5" s="26" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
@@ -1451,7 +1470,7 @@
     </row>
     <row r="6" spans="1:27" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>25</v>
@@ -1462,64 +1481,66 @@
       <c r="D6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="30">
         <v>45630</v>
       </c>
       <c r="F6" s="27">
         <v>45352</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="L6" s="26" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O6" s="37" t="s">
-        <v>177</v>
+        <v>165</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>160</v>
       </c>
       <c r="V6" s="6"/>
     </row>
     <row r="7" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="31">
         <v>3</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="30"/>
+        <v>191</v>
+      </c>
+      <c r="E7" s="29"/>
       <c r="F7" s="27">
         <v>45352</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="H7" s="26"/>
+        <v>157</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>157</v>
+      </c>
       <c r="I7" s="26" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="J7" s="26">
         <v>5.5</v>
@@ -1530,7 +1551,7 @@
     </row>
     <row r="8" spans="1:27" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>23</v>
@@ -1541,43 +1562,43 @@
       <c r="D8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="30">
         <v>45630</v>
       </c>
       <c r="F8" s="27">
         <v>45352</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="J8" s="26">
         <v>6</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>180</v>
+        <v>165</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:27" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>24</v>
@@ -1588,43 +1609,43 @@
       <c r="D9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="30">
         <v>45630</v>
       </c>
       <c r="F9" s="27">
         <v>45352</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="J9" s="26">
         <v>6</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:27" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>26</v>
@@ -1635,280 +1656,282 @@
       <c r="D10" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="30">
         <v>45630</v>
       </c>
       <c r="F10" s="27">
         <v>45352</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="J10" s="26">
         <v>6</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O10" s="37" t="s">
-        <v>176</v>
+        <v>165</v>
+      </c>
+      <c r="O10" s="36" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:27" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="39">
+      <c r="C11" s="32">
+        <v>3</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="38">
         <v>45488</v>
       </c>
-      <c r="G11" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>174</v>
+      <c r="G11" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>157</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="33">
-        <v>3</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="39">
+      <c r="C12" s="32">
+        <v>3</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="38">
         <v>45535</v>
       </c>
-      <c r="G12" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="L12" s="34" t="s">
-        <v>174</v>
+      <c r="G12" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>157</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="33">
-        <v>4</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="39">
+      <c r="C13" s="32">
+        <v>4</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="38">
         <v>45535</v>
       </c>
-      <c r="G13" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="L13" s="34" t="s">
-        <v>174</v>
+      <c r="G13" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>157</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="33">
-        <v>4</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="39">
+      <c r="C14" s="32">
+        <v>4</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="34"/>
+      <c r="F14" s="38">
         <v>45535</v>
       </c>
-      <c r="G14" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="L14" s="34" t="s">
-        <v>174</v>
+      <c r="G14" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>157</v>
       </c>
       <c r="M14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="O14" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="30"/>
+        <v>191</v>
+      </c>
+      <c r="E15" s="29"/>
       <c r="F15" s="27">
         <v>45413</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="J15" s="26">
         <v>6.5</v>
       </c>
       <c r="K15" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="L15" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:27" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="33">
-        <v>4</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="38">
+      <c r="C16" s="32">
+        <v>4</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="37">
         <v>45352</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="38">
         <v>45458</v>
       </c>
-      <c r="G16" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="I16" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="J16" s="34">
+      <c r="G16" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="J16" s="33">
         <v>6.5</v>
       </c>
-      <c r="K16" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="L16" s="34" t="s">
-        <v>174</v>
+      <c r="K16" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>157</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="O16" s="40" t="s">
-        <v>193</v>
+        <v>154</v>
+      </c>
+      <c r="O16" s="39" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C17" s="25">
         <v>5</v>
@@ -1916,85 +1939,85 @@
       <c r="D17" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="30">
         <v>45488</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="J17" s="26">
         <v>6.5</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="L17" s="26" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="O17" s="37" t="s">
-        <v>194</v>
+        <v>179</v>
+      </c>
+      <c r="O17" s="36" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="33">
-        <v>4</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39">
+      <c r="C18" s="32">
+        <v>4</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38">
         <v>45366</v>
       </c>
-      <c r="G18" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="I18" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="J18" s="34">
+      <c r="G18" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18" s="33">
         <v>6</v>
       </c>
-      <c r="K18" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="L18" s="34" t="s">
-        <v>174</v>
+      <c r="K18" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" s="33" t="s">
+        <v>157</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="O18" s="40" t="s">
-        <v>199</v>
+        <v>183</v>
+      </c>
+      <c r="O18" s="39" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>9</v>
@@ -2005,7 +2028,7 @@
       <c r="D19" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="30">
         <v>45383</v>
       </c>
       <c r="F19" s="27">
@@ -2020,15 +2043,15 @@
       <c r="K19" s="26"/>
       <c r="L19" s="26"/>
       <c r="M19" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="O19" s="37" t="s">
-        <v>202</v>
+        <v>181</v>
+      </c>
+      <c r="O19" s="36" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="3" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>10</v>
@@ -2037,45 +2060,45 @@
         <v>4</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="31">
+        <v>191</v>
+      </c>
+      <c r="E20" s="30">
         <v>45566</v>
       </c>
       <c r="F20" s="27">
         <v>45306</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="J20" s="26">
         <v>5.5</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="O20" s="37" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="O20" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="3" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="25">
         <v>4</v>
@@ -2083,312 +2106,298 @@
       <c r="D21" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="30">
         <v>45383</v>
       </c>
       <c r="F21" s="27">
         <v>45488</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="J21" s="26">
         <v>5.5</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="L21" s="26" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="O21" s="37" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="3" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="25">
-        <v>4</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="31">
-        <v>45383</v>
-      </c>
-      <c r="F22" s="27">
-        <v>45488</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="J22" s="26">
-        <v>5.5</v>
-      </c>
-      <c r="K22" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="L22" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="O22" s="37" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="O21" s="36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="32">
+        <v>4</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" s="33">
+        <v>6.5</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="O22" s="39" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="33">
-        <v>4</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="I23" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="J23" s="34">
-        <v>6.5</v>
-      </c>
-      <c r="K23" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="L23" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="O23" s="40" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="35">
+        <v>6</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="33">
-        <v>4</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="38">
-        <v>45413</v>
-      </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="I24" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="J24" s="34">
-        <v>6.5</v>
-      </c>
-      <c r="K24" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="L24" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="O24" s="40" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C25" s="36">
-        <v>4</v>
-      </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="O25" s="8"/>
-    </row>
-    <row r="26" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="36">
-        <v>4</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="O26" s="8"/>
-    </row>
-    <row r="27" spans="1:15" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="11" t="s">
+      <c r="C24" s="35">
+        <v>4</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="O24" s="8"/>
+    </row>
+    <row r="25" spans="1:15" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="O27" s="4"/>
-    </row>
-    <row r="28" spans="1:15" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="11" t="s">
+      <c r="C25" s="25">
+        <v>4</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" spans="1:15" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="O28" s="4"/>
+      <c r="C26" s="25">
+        <v>4</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="29"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="O26" s="4"/>
+    </row>
+    <row r="27" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="32">
+        <v>4</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="O27" s="8"/>
+    </row>
+    <row r="28" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="32">
+        <v>4</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" s="34"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="O28" s="8"/>
     </row>
     <row r="29" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
+        <v>13</v>
+      </c>
+      <c r="C29" s="32">
+        <v>4</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" s="34"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
       <c r="O29" s="8"/>
     </row>
-    <row r="30" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="O30" s="8"/>
-    </row>
-    <row r="31" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="O31" s="8"/>
+    <row r="30" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="25">
+        <v>4</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="29"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" spans="1:15" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="25">
+        <v>4</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="O31" s="4"/>
     </row>
     <row r="32" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="30"/>
+        <v>34</v>
+      </c>
+      <c r="C32" s="25">
+        <v>4</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" s="26"/>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
@@ -2398,34 +2407,42 @@
       <c r="L32" s="26"/>
       <c r="O32" s="4"/>
     </row>
-    <row r="33" spans="1:15" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="O33" s="4"/>
+    <row r="33" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="32">
+        <v>4</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="O33" s="8"/>
     </row>
     <row r="34" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
+        <v>36</v>
+      </c>
+      <c r="C34" s="25">
+        <v>4</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>3</v>
+      </c>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
@@ -2436,338 +2453,410 @@
       <c r="L34" s="26"/>
       <c r="O34" s="4"/>
     </row>
-    <row r="35" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
+        <v>37</v>
+      </c>
+      <c r="C35" s="32">
+        <v>4</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
       <c r="O35" s="8"/>
     </row>
-    <row r="36" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="O36" s="4"/>
-    </row>
-    <row r="37" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="O37" s="4"/>
-    </row>
-    <row r="38" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" s="11" t="s">
+    <row r="36" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="O38" s="4"/>
+      <c r="C36" s="32">
+        <v>6</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="O36" s="8"/>
+    </row>
+    <row r="37" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="32">
+        <v>6</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="O37" s="8"/>
+    </row>
+    <row r="38" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="32">
+        <v>4</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="O38" s="8"/>
     </row>
     <row r="39" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
+        <v>41</v>
+      </c>
+      <c r="C39" s="32">
+        <v>4</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
       <c r="O39" s="8"/>
     </row>
-    <row r="40" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
+        <v>42</v>
+      </c>
+      <c r="C40" s="32">
+        <v>4</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
       <c r="O40" s="8"/>
     </row>
-    <row r="41" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
+        <v>43</v>
+      </c>
+      <c r="C41" s="32">
+        <v>4</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
       <c r="O41" s="8"/>
     </row>
-    <row r="42" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
+        <v>44</v>
+      </c>
+      <c r="C42" s="32">
+        <v>4</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
       <c r="O42" s="8"/>
     </row>
-    <row r="43" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
+        <v>45</v>
+      </c>
+      <c r="C43" s="32">
+        <v>3</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
       <c r="O43" s="8"/>
     </row>
-    <row r="44" spans="1:15" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="O44" s="4"/>
-    </row>
-    <row r="45" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="O45" s="8"/>
-    </row>
-    <row r="46" spans="1:15" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B46" s="11" t="s">
+    <row r="44" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="O46" s="4"/>
-    </row>
-    <row r="47" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="C44" s="32">
+        <v>3</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="O44" s="8"/>
+    </row>
+    <row r="45" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="25">
+        <v>5</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="O45" s="4"/>
+    </row>
+    <row r="46" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="32">
+        <v>4</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="O46" s="8"/>
+    </row>
+    <row r="47" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
+        <v>15</v>
+      </c>
+      <c r="C47" s="32">
+        <v>4</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
       <c r="O47" s="8"/>
     </row>
-    <row r="48" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
+      <c r="C48" s="32">
+        <v>4</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
       <c r="O48" s="8"/>
     </row>
-    <row r="49" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B49" s="12" t="s">
+    <row r="49" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" s="25">
+        <v>4</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="O49" s="4"/>
+    </row>
+    <row r="50" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="O49" s="8"/>
-    </row>
-    <row r="50" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="O50" s="8"/>
-    </row>
-    <row r="51" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="O51" s="8"/>
+      <c r="C50" s="25">
+        <v>4</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="O50" s="4"/>
+    </row>
+    <row r="51" spans="1:15" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" s="25">
+        <v>4</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="O51" s="4"/>
     </row>
     <row r="52" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="26"/>
+        <v>50</v>
+      </c>
+      <c r="C52" s="25">
+        <v>4</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>3</v>
+      </c>
       <c r="E52" s="26"/>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -2778,72 +2867,88 @@
       <c r="L52" s="26"/>
       <c r="O52" s="4"/>
     </row>
-    <row r="53" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="34"/>
+        <v>51</v>
+      </c>
+      <c r="C53" s="32">
+        <v>4</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
       <c r="O53" s="8"/>
     </row>
     <row r="54" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="33"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
+        <v>52</v>
+      </c>
+      <c r="C54" s="32">
+        <v>7</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
       <c r="O54" s="8"/>
     </row>
-    <row r="55" spans="1:15" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="O55" s="8"/>
+    <row r="55" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="25">
+        <v>4</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="O55" s="4"/>
     </row>
     <row r="56" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="26"/>
+        <v>53</v>
+      </c>
+      <c r="C56" s="25">
+        <v>4</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>191</v>
+      </c>
       <c r="E56" s="26"/>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -2854,34 +2959,42 @@
       <c r="L56" s="26"/>
       <c r="O56" s="4"/>
     </row>
-    <row r="57" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B57" s="11" t="s">
+    <row r="57" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="32">
+        <v>4</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="O57" s="8"/>
+    </row>
+    <row r="58" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="25"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="O57" s="4"/>
-    </row>
-    <row r="58" spans="1:15" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="26"/>
+      <c r="C58" s="25">
+        <v>4</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>3</v>
+      </c>
       <c r="E58" s="26"/>
       <c r="F58" s="26"/>
       <c r="G58" s="26"/>
@@ -2892,72 +3005,88 @@
       <c r="L58" s="26"/>
       <c r="O58" s="4"/>
     </row>
-    <row r="59" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B59" s="11" t="s">
+    <row r="59" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="32">
+        <v>6</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="O59" s="8"/>
+    </row>
+    <row r="60" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="25">
+        <v>4</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="O60" s="4"/>
+    </row>
+    <row r="61" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="O59" s="4"/>
-    </row>
-    <row r="60" spans="1:15" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" s="33"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="34"/>
-      <c r="O60" s="8"/>
-    </row>
-    <row r="61" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="34"/>
-      <c r="O61" s="8"/>
+      <c r="C61" s="25">
+        <v>4</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="O61" s="4"/>
     </row>
     <row r="62" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="26"/>
+        <v>58</v>
+      </c>
+      <c r="C62" s="25">
+        <v>3</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>3</v>
+      </c>
       <c r="E62" s="26"/>
       <c r="F62" s="26"/>
       <c r="G62" s="26"/>
@@ -2968,91 +3097,111 @@
       <c r="L62" s="26"/>
       <c r="O62" s="4"/>
     </row>
-    <row r="63" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B63" s="11" t="s">
+    <row r="63" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="32">
+        <v>4</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="O63" s="8"/>
+    </row>
+    <row r="64" spans="1:15" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="25">
+        <v>4</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="O64" s="4"/>
+    </row>
+    <row r="65" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="25"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="26"/>
-      <c r="O63" s="4"/>
-    </row>
-    <row r="64" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B64" s="12" t="s">
+      <c r="C65" s="32">
+        <v>3</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="O65" s="8"/>
+    </row>
+    <row r="66" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="33"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="34"/>
-      <c r="O64" s="8"/>
-    </row>
-    <row r="65" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C65" s="25"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="26"/>
-      <c r="O65" s="4"/>
-    </row>
-    <row r="66" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C66" s="33"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="O66" s="8"/>
+      <c r="C66" s="25">
+        <v>4</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="O66" s="4"/>
     </row>
     <row r="67" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C67" s="25"/>
-      <c r="D67" s="26"/>
+        <v>62</v>
+      </c>
+      <c r="C67" s="25">
+        <v>4</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>3</v>
+      </c>
       <c r="E67" s="26"/>
       <c r="F67" s="26"/>
       <c r="G67" s="26"/>
@@ -3065,13 +3214,17 @@
     </row>
     <row r="68" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="26"/>
+        <v>15</v>
+      </c>
+      <c r="C68" s="25">
+        <v>4</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>3</v>
+      </c>
       <c r="E68" s="26"/>
       <c r="F68" s="26"/>
       <c r="G68" s="26"/>
@@ -3082,50 +3235,58 @@
       <c r="L68" s="26"/>
       <c r="O68" s="4"/>
     </row>
-    <row r="69" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="26"/>
-      <c r="L69" s="26"/>
-      <c r="O69" s="4"/>
+    <row r="69" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="32">
+        <v>4</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="33"/>
+      <c r="O69" s="8"/>
     </row>
     <row r="70" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C70" s="33"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="34"/>
-      <c r="L70" s="34"/>
+        <v>64</v>
+      </c>
+      <c r="C70" s="32">
+        <v>4</v>
+      </c>
+      <c r="D70" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
       <c r="O70" s="8"/>
     </row>
-    <row r="71" spans="1:15" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C71" s="25"/>
       <c r="D71" s="26"/>
@@ -3139,31 +3300,31 @@
       <c r="L71" s="26"/>
       <c r="O71" s="4"/>
     </row>
-    <row r="72" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" s="33"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="34"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="34"/>
-      <c r="L72" s="34"/>
+        <v>65</v>
+      </c>
+      <c r="C72" s="32"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="33"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="33"/>
       <c r="O72" s="8"/>
     </row>
-    <row r="73" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C73" s="25"/>
       <c r="D73" s="26"/>
@@ -3179,143 +3340,143 @@
     </row>
     <row r="74" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="34"/>
-      <c r="L74" s="34"/>
+        <v>67</v>
+      </c>
+      <c r="C74" s="32"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33"/>
       <c r="O74" s="8"/>
     </row>
     <row r="75" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B75" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" s="32"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="33"/>
+      <c r="J75" s="33"/>
+      <c r="K75" s="33"/>
+      <c r="L75" s="33"/>
+      <c r="O75" s="8"/>
+    </row>
+    <row r="76" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" s="32"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="33"/>
+      <c r="J76" s="33"/>
+      <c r="K76" s="33"/>
+      <c r="L76" s="33"/>
+      <c r="O76" s="8"/>
+    </row>
+    <row r="77" spans="1:15" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B77" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C75" s="33"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="34"/>
-      <c r="L75" s="34"/>
-      <c r="O75" s="8"/>
-    </row>
-    <row r="76" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="B76" s="11" t="s">
+      <c r="C77" s="25"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
+      <c r="O77" s="4"/>
+    </row>
+    <row r="78" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="26"/>
-      <c r="L76" s="26"/>
-      <c r="O76" s="4"/>
-    </row>
-    <row r="77" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="B77" s="12" t="s">
+      <c r="C78" s="32"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="33"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="33"/>
+      <c r="L78" s="33"/>
+      <c r="O78" s="8"/>
+    </row>
+    <row r="79" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B79" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C77" s="33"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="34"/>
-      <c r="L77" s="34"/>
-      <c r="O77" s="8"/>
-    </row>
-    <row r="78" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C78" s="25"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="26"/>
-      <c r="L78" s="26"/>
-      <c r="O78" s="4"/>
-    </row>
-    <row r="79" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B79" s="12" t="s">
+      <c r="C79" s="25"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26"/>
+      <c r="O79" s="4"/>
+    </row>
+    <row r="80" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B80" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C79" s="33"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="34"/>
-      <c r="K79" s="34"/>
-      <c r="L79" s="34"/>
-      <c r="O79" s="8"/>
-    </row>
-    <row r="80" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B80" s="12" t="s">
+      <c r="C80" s="32"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="33"/>
+      <c r="J80" s="33"/>
+      <c r="K80" s="33"/>
+      <c r="L80" s="33"/>
+      <c r="O80" s="8"/>
+    </row>
+    <row r="81" spans="1:15" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="C80" s="33"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="34"/>
-      <c r="K80" s="34"/>
-      <c r="L80" s="34"/>
-      <c r="O80" s="8"/>
-    </row>
-    <row r="81" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>68</v>
       </c>
       <c r="C81" s="25"/>
       <c r="D81" s="26"/>
@@ -3336,568 +3497,411 @@
       <c r="B82" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C82" s="33"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="34"/>
-      <c r="L82" s="34"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="33"/>
+      <c r="K82" s="33"/>
+      <c r="L82" s="33"/>
       <c r="O82" s="8"/>
     </row>
-    <row r="83" spans="1:15" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="16" t="s">
+    <row r="83" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="32"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="33"/>
+      <c r="K83" s="33"/>
+      <c r="L83" s="33"/>
+      <c r="O83" s="8"/>
+    </row>
+    <row r="84" spans="1:15" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B83" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C83" s="25"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="26"/>
-      <c r="L83" s="26"/>
-      <c r="O83" s="4"/>
-    </row>
-    <row r="84" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="34"/>
-      <c r="K84" s="34"/>
-      <c r="L84" s="34"/>
-      <c r="O84" s="8"/>
-    </row>
-    <row r="85" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="C84" s="25"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="26"/>
+      <c r="L84" s="26"/>
+      <c r="O84" s="4"/>
+    </row>
+    <row r="85" spans="1:15" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B85" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C85" s="33"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="34"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="34"/>
-      <c r="K85" s="34"/>
-      <c r="L85" s="34"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="33"/>
+      <c r="L85" s="33"/>
       <c r="O85" s="8"/>
     </row>
-    <row r="86" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B86" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C86" s="33"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="34"/>
-      <c r="K86" s="34"/>
-      <c r="L86" s="34"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="33"/>
+      <c r="L86" s="33"/>
       <c r="O86" s="8"/>
     </row>
-    <row r="87" spans="1:15" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B87" s="11" t="s">
+    <row r="87" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B87" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C87" s="25"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="26"/>
-      <c r="K87" s="26"/>
-      <c r="L87" s="26"/>
-      <c r="O87" s="4"/>
-    </row>
-    <row r="88" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="32"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="33"/>
+      <c r="L87" s="33"/>
+      <c r="O87" s="8"/>
+    </row>
+    <row r="88" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B88" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C88" s="33"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="34"/>
-      <c r="K88" s="34"/>
-      <c r="L88" s="34"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="33"/>
+      <c r="L88" s="33"/>
       <c r="O88" s="8"/>
     </row>
-    <row r="89" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B89" s="11" t="s">
+    <row r="89" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B89" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C89" s="25"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="26"/>
-      <c r="J89" s="26"/>
-      <c r="K89" s="26"/>
-      <c r="L89" s="26"/>
-      <c r="O89" s="4"/>
-    </row>
-    <row r="90" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B90" s="12" t="s">
+      <c r="C89" s="32"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="33"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="33"/>
+      <c r="L89" s="33"/>
+      <c r="O89" s="8"/>
+    </row>
+    <row r="90" spans="1:15" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B90" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C90" s="33"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="34"/>
-      <c r="L90" s="34"/>
-      <c r="O90" s="8"/>
-    </row>
-    <row r="91" spans="1:15" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B91" s="11" t="s">
+      <c r="C90" s="25"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="26"/>
+      <c r="L90" s="26"/>
+      <c r="O90" s="4"/>
+    </row>
+    <row r="91" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B91" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C91" s="25"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="26"/>
-      <c r="J91" s="26"/>
-      <c r="K91" s="26"/>
-      <c r="L91" s="26"/>
-      <c r="O91" s="4"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="33"/>
+      <c r="K91" s="33"/>
+      <c r="L91" s="33"/>
+      <c r="O91" s="8"/>
     </row>
     <row r="92" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B92" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="32"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="33"/>
+      <c r="J92" s="33"/>
+      <c r="K92" s="33"/>
+      <c r="L92" s="33"/>
+      <c r="O92" s="8"/>
+    </row>
+    <row r="93" spans="1:15" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A93" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B93" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C92" s="33"/>
-      <c r="D92" s="34"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="34"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="34"/>
-      <c r="K92" s="34"/>
-      <c r="L92" s="34"/>
-      <c r="O92" s="8"/>
-    </row>
-    <row r="93" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B93" s="12" t="s">
+      <c r="C93" s="25"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="26"/>
+      <c r="O93" s="4"/>
+    </row>
+    <row r="94" spans="1:15" s="7" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A94" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B94" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C93" s="33"/>
-      <c r="D93" s="34"/>
-      <c r="E93" s="34"/>
-      <c r="F93" s="34"/>
-      <c r="G93" s="34"/>
-      <c r="H93" s="34"/>
-      <c r="I93" s="34"/>
-      <c r="J93" s="34"/>
-      <c r="K93" s="34"/>
-      <c r="L93" s="34"/>
-      <c r="O93" s="8"/>
-    </row>
-    <row r="94" spans="1:15" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="B94" s="11" t="s">
+      <c r="C94" s="32"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="33"/>
+      <c r="J94" s="33"/>
+      <c r="K94" s="33"/>
+      <c r="L94" s="33"/>
+      <c r="O94" s="8"/>
+    </row>
+    <row r="95" spans="1:15" s="7" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A95" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B95" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C94" s="25"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="26"/>
-      <c r="I94" s="26"/>
-      <c r="J94" s="26"/>
-      <c r="K94" s="26"/>
-      <c r="L94" s="26"/>
-      <c r="O94" s="4"/>
-    </row>
-    <row r="95" spans="1:15" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A95" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B95" s="12" t="s">
+      <c r="C95" s="32"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="33"/>
+      <c r="J95" s="33"/>
+      <c r="K95" s="33"/>
+      <c r="L95" s="33"/>
+      <c r="O95" s="8"/>
+    </row>
+    <row r="96" spans="1:15" s="7" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A96" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B96" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C95" s="33"/>
-      <c r="D95" s="34"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34"/>
-      <c r="H95" s="34"/>
-      <c r="I95" s="34"/>
-      <c r="J95" s="34"/>
-      <c r="K95" s="34"/>
-      <c r="L95" s="34"/>
-      <c r="O95" s="8"/>
-    </row>
-    <row r="96" spans="1:15" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A96" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C96" s="33"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="34"/>
-      <c r="J96" s="34"/>
-      <c r="K96" s="34"/>
-      <c r="L96" s="34"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="33"/>
+      <c r="J96" s="33"/>
+      <c r="K96" s="33"/>
+      <c r="L96" s="33"/>
       <c r="O96" s="8"/>
     </row>
-    <row r="97" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B97" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C97" s="33"/>
-      <c r="D97" s="34"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="34"/>
-      <c r="J97" s="34"/>
-      <c r="K97" s="34"/>
-      <c r="L97" s="34"/>
-      <c r="O97" s="8"/>
-    </row>
-    <row r="98" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="25"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="26"/>
+      <c r="J97" s="26"/>
+      <c r="K97" s="26"/>
+      <c r="L97" s="26"/>
+      <c r="O97" s="4"/>
+    </row>
+    <row r="98" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C98" s="33"/>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="34"/>
-      <c r="K98" s="34"/>
-      <c r="L98" s="34"/>
+        <v>12</v>
+      </c>
+      <c r="C98" s="32"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="33"/>
+      <c r="J98" s="33"/>
+      <c r="K98" s="33"/>
+      <c r="L98" s="33"/>
       <c r="O98" s="8"/>
     </row>
-    <row r="99" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C99" s="33"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="34"/>
-      <c r="F99" s="34"/>
-      <c r="G99" s="34"/>
-      <c r="H99" s="34"/>
-      <c r="I99" s="34"/>
-      <c r="J99" s="34"/>
-      <c r="K99" s="34"/>
-      <c r="L99" s="34"/>
+        <v>18</v>
+      </c>
+      <c r="C99" s="32"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="33"/>
+      <c r="J99" s="33"/>
+      <c r="K99" s="33"/>
+      <c r="L99" s="33"/>
       <c r="O99" s="8"/>
     </row>
-    <row r="100" spans="1:15" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C100" s="25"/>
-      <c r="D100" s="26"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="26"/>
-      <c r="I100" s="26"/>
-      <c r="J100" s="26"/>
-      <c r="K100" s="26"/>
-      <c r="L100" s="26"/>
-      <c r="O100" s="4"/>
-    </row>
-    <row r="101" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C101" s="33"/>
-      <c r="D101" s="34"/>
-      <c r="E101" s="34"/>
-      <c r="F101" s="34"/>
-      <c r="G101" s="34"/>
-      <c r="H101" s="34"/>
-      <c r="I101" s="34"/>
-      <c r="J101" s="34"/>
-      <c r="K101" s="34"/>
-      <c r="L101" s="34"/>
-      <c r="O101" s="8"/>
-    </row>
-    <row r="102" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="33"/>
-      <c r="D102" s="34"/>
-      <c r="E102" s="34"/>
-      <c r="F102" s="34"/>
-      <c r="G102" s="34"/>
-      <c r="H102" s="34"/>
-      <c r="I102" s="34"/>
-      <c r="J102" s="34"/>
-      <c r="K102" s="34"/>
-      <c r="L102" s="34"/>
-      <c r="O102" s="8"/>
-    </row>
-    <row r="103" spans="1:15" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A103" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C103" s="25"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
-      <c r="F103" s="26"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="26"/>
-      <c r="I103" s="26"/>
-      <c r="J103" s="26"/>
-      <c r="K103" s="26"/>
-      <c r="L103" s="26"/>
-      <c r="O103" s="4"/>
-    </row>
-    <row r="104" spans="1:15" s="7" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A104" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B104" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C104" s="33"/>
-      <c r="D104" s="34"/>
-      <c r="E104" s="34"/>
-      <c r="F104" s="34"/>
-      <c r="G104" s="34"/>
-      <c r="H104" s="34"/>
-      <c r="I104" s="34"/>
-      <c r="J104" s="34"/>
-      <c r="K104" s="34"/>
-      <c r="L104" s="34"/>
-      <c r="O104" s="8"/>
-    </row>
-    <row r="105" spans="1:15" s="7" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A105" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C105" s="33"/>
-      <c r="D105" s="34"/>
-      <c r="E105" s="34"/>
-      <c r="F105" s="34"/>
-      <c r="G105" s="34"/>
-      <c r="H105" s="34"/>
-      <c r="I105" s="34"/>
-      <c r="J105" s="34"/>
-      <c r="K105" s="34"/>
-      <c r="L105" s="34"/>
-      <c r="O105" s="8"/>
-    </row>
-    <row r="106" spans="1:15" s="7" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A106" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C106" s="33"/>
-      <c r="D106" s="34"/>
-      <c r="E106" s="34"/>
-      <c r="F106" s="34"/>
-      <c r="G106" s="34"/>
-      <c r="H106" s="34"/>
-      <c r="I106" s="34"/>
-      <c r="J106" s="34"/>
-      <c r="K106" s="34"/>
-      <c r="L106" s="34"/>
-      <c r="O106" s="8"/>
-    </row>
-    <row r="107" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C107" s="25"/>
-      <c r="D107" s="26"/>
-      <c r="E107" s="26"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="26"/>
-      <c r="I107" s="26"/>
-      <c r="J107" s="26"/>
-      <c r="K107" s="26"/>
-      <c r="L107" s="26"/>
-      <c r="O107" s="4"/>
-    </row>
-    <row r="108" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C108" s="33"/>
-      <c r="D108" s="34"/>
-      <c r="E108" s="34"/>
-      <c r="F108" s="34"/>
-      <c r="G108" s="34"/>
-      <c r="H108" s="34"/>
-      <c r="I108" s="34"/>
-      <c r="J108" s="34"/>
-      <c r="K108" s="34"/>
-      <c r="L108" s="34"/>
-      <c r="O108" s="8"/>
-    </row>
-    <row r="109" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="B109" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C109" s="33"/>
-      <c r="D109" s="34"/>
-      <c r="E109" s="34"/>
-      <c r="F109" s="34"/>
-      <c r="G109" s="34"/>
-      <c r="H109" s="34"/>
-      <c r="I109" s="34"/>
-      <c r="J109" s="34"/>
-      <c r="K109" s="34"/>
-      <c r="L109" s="34"/>
-      <c r="O109" s="8"/>
-    </row>
-    <row r="110" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="B110" s="12" t="s">
+    <row r="100" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B100" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C110" s="33"/>
-      <c r="D110" s="34"/>
-      <c r="E110" s="34"/>
-      <c r="F110" s="34"/>
-      <c r="G110" s="34"/>
-      <c r="H110" s="34"/>
-      <c r="I110" s="34"/>
-      <c r="J110" s="34"/>
-      <c r="K110" s="34"/>
-      <c r="L110" s="34"/>
-      <c r="O110" s="8"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="33"/>
+      <c r="I100" s="33"/>
+      <c r="J100" s="33"/>
+      <c r="K100" s="33"/>
+      <c r="L100" s="33"/>
+      <c r="O100" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N110" xr:uid="{DFF3F35C-AC4C-D844-9CA0-9CC4BD9BD317}"/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="O10" r:id="rId1" location="application-information" xr:uid="{8FCC4772-F5EB-44C6-8F64-CCF88E7B60F9}"/>
     <hyperlink ref="O6" r:id="rId2" xr:uid="{B0F0FD0B-5DEF-4990-873F-DE89A5C17040}"/>
     <hyperlink ref="O2" r:id="rId3" xr:uid="{6463E031-FE3A-4727-A7F0-908D14611274}"/>
     <hyperlink ref="O8" r:id="rId4" xr:uid="{07004F72-5C34-4952-BF2D-E14EFDD0A658}"/>
     <hyperlink ref="O16" r:id="rId5" xr:uid="{484976B9-8680-4ECB-A5BD-AB8777C1375E}"/>
-    <hyperlink ref="O24" r:id="rId6" xr:uid="{248F68CB-85AA-4BA0-B411-D4F6195A04F6}"/>
-    <hyperlink ref="O23" r:id="rId7" xr:uid="{549883A2-CC11-45D8-AC1E-3CE15076239F}"/>
-    <hyperlink ref="O22" r:id="rId8" xr:uid="{8F2537E8-D7E5-4FB7-A648-13C5566A105B}"/>
-    <hyperlink ref="O21" r:id="rId9" location="allgemein" xr:uid="{CC778E54-CB5E-4417-9761-50D4F2D1A491}"/>
-    <hyperlink ref="O20" r:id="rId10" location="allgemein" xr:uid="{817F56E0-1376-453E-A76B-18AE5D3353BF}"/>
-    <hyperlink ref="O19" r:id="rId11" xr:uid="{C6400DBE-D6A5-4246-AB3C-67360CE9F15B}"/>
-    <hyperlink ref="O18" r:id="rId12" xr:uid="{CEAC4D19-64A1-4DC6-9F30-1E931164221D}"/>
-    <hyperlink ref="O17" r:id="rId13" xr:uid="{ED1C3ACF-72F1-4FFF-95D6-5BCC89E3416A}"/>
+    <hyperlink ref="O22" r:id="rId6" xr:uid="{549883A2-CC11-45D8-AC1E-3CE15076239F}"/>
+    <hyperlink ref="O21" r:id="rId7" xr:uid="{8F2537E8-D7E5-4FB7-A648-13C5566A105B}"/>
+    <hyperlink ref="O20" r:id="rId8" location="allgemein" xr:uid="{817F56E0-1376-453E-A76B-18AE5D3353BF}"/>
+    <hyperlink ref="O19" r:id="rId9" xr:uid="{C6400DBE-D6A5-4246-AB3C-67360CE9F15B}"/>
+    <hyperlink ref="O18" r:id="rId10" xr:uid="{CEAC4D19-64A1-4DC6-9F30-1E931164221D}"/>
+    <hyperlink ref="O17" r:id="rId11" xr:uid="{ED1C3ACF-72F1-4FFF-95D6-5BCC89E3416A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{95E2B758-CF62-413C-89D9-3A07D0954FB3}">
+          <x14:formula1>
+            <xm:f>'Drop Down'!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C14</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4A04A5D8-FF18-4942-B717-E78D8DA502CE}">
+          <x14:formula1>
+            <xm:f>'Drop Down'!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C15:C16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{93CFB053-12F1-491F-806C-1D6748216FCA}">
+          <x14:formula1>
+            <xm:f>'Drop Down'!$B$2:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C17:C53</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D07D33A6-F3EC-4CF4-8FBC-4981958054EF}">
+          <x14:formula1>
+            <xm:f>'Drop Down'!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C10E5C94-C617-4F72-9B7E-FB903EC2D8CB}">
+          <x14:formula1>
+            <xm:f>'Drop Down'!$B$2:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C54:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/universities_courses.xlsx
+++ b/universities_courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\betto\Desktop\Foreign Dreality\GUI\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC745DAA-080B-444D-8E61-3A4E88BCA1EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA93E08A-2071-4301-BC7D-BBC7C21EC990}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1" xr2:uid="{024E68FD-C9DB-4C78-9B9C-7F4EE35C43D3}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Data base" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Data base'!$A$1:$N$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Data base'!$A$1:$N$90</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="183">
   <si>
     <t>Application Deadline</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Materials Science and Engineering</t>
   </si>
   <si>
-    <t>Meachanical Engineering</t>
-  </si>
-  <si>
     <t>Chemical Biotechnology</t>
   </si>
   <si>
@@ -235,9 +232,6 @@
     <t>Artificial Intelligence</t>
   </si>
   <si>
-    <t>Bussiness and Engineering</t>
-  </si>
-  <si>
     <t>Transformation</t>
   </si>
   <si>
@@ -247,9 +241,6 @@
     <t>Operational Excellence</t>
   </si>
   <si>
-    <t>Simulation Based Engineering</t>
-  </si>
-  <si>
     <t>Paper Technology (Consecutive)</t>
   </si>
   <si>
@@ -262,27 +253,6 @@
     <t>International Technology Transfer Management</t>
   </si>
   <si>
-    <t>Systems Engineering and Engineering Management</t>
-  </si>
-  <si>
-    <t>Engineering and International Bussiness Focus on Renewable Energy, Water and Waste Management</t>
-  </si>
-  <si>
-    <t>Engineering and Sustainable Technology Management-Focus on Industry 4.0: Automation, Robotics &amp; 3D Manufacturing</t>
-  </si>
-  <si>
-    <t>Engineering and Sustainable Management-Focus on Mobility and Automotive Industry</t>
-  </si>
-  <si>
-    <t>Engineering and Sustainable Technology-Focus on smart Building Technologies</t>
-  </si>
-  <si>
-    <t>Sustainable Battery Production Engineering - dual</t>
-  </si>
-  <si>
-    <t>International Bussiness and Engineering</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bionics </t>
   </si>
   <si>
@@ -292,9 +262,6 @@
     <t>Cyber Security</t>
   </si>
   <si>
-    <t>Digital bussiness modelling and Entrepreneurship</t>
-  </si>
-  <si>
     <t>Digital Factory and Operational Excellence</t>
   </si>
   <si>
@@ -421,18 +388,9 @@
     <t>Hof University of Applied Sciences</t>
   </si>
   <si>
-    <t xml:space="preserve"> Technische Hochschule Ingostadt</t>
-  </si>
-  <si>
     <t>Hochschule Kaiserlautern (University of Applied Sciences)</t>
   </si>
   <si>
-    <t>SRH Berlin University of Applied Sciences</t>
-  </si>
-  <si>
-    <t>SRH University in Nort Rhine-Westphalia</t>
-  </si>
-  <si>
     <t>Rhine-waal University of Applied Sciences</t>
   </si>
   <si>
@@ -457,9 +415,6 @@
     <t>University of Applied Sciences for Medium-Sized Companies (FHM)</t>
   </si>
   <si>
-    <t>South Westphalia University of Applied Sciences</t>
-  </si>
-  <si>
     <t>Berlin University of Applied Sciences</t>
   </si>
   <si>
@@ -617,6 +572,12 @@
   </si>
   <si>
     <t>Mobility Systems Engineering and Management (MSEM)</t>
+  </si>
+  <si>
+    <t>Computational Mechanics of Materials and Structures (COMMAS)</t>
+  </si>
+  <si>
+    <t>BBW University</t>
   </si>
 </sst>
 </file>
@@ -1177,10 +1138,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1193,7 +1154,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -1201,7 +1162,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1224,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8488F6-4294-3B41-8B0B-CB6ED2ABB72C}">
-  <dimension ref="A1:AA100"/>
+  <dimension ref="A1:AA90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1264,49 +1225,49 @@
   <sheetData>
     <row r="1" spans="1:27" s="24" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="J1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="P1" s="23"/>
       <c r="Q1" s="23"/>
@@ -1323,10 +1284,10 @@
     </row>
     <row r="2" spans="1:27" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C2" s="25">
         <v>4</v>
@@ -1341,38 +1302,38 @@
         <v>45352</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="I2" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="O2" s="36" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
     <row r="3" spans="1:27" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>4</v>
@@ -1390,30 +1351,30 @@
         <v>45352</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="J3" s="26"/>
       <c r="K3" s="26" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="L3" s="26"/>
       <c r="O3" s="4" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="V3" s="6"/>
     </row>
     <row r="4" spans="1:27" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C4" s="25">
         <v>4</v>
@@ -1425,10 +1386,10 @@
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
       <c r="H4" s="26" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
@@ -1438,7 +1399,7 @@
     </row>
     <row r="5" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>6</v>
@@ -1447,7 +1408,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E5" s="30">
         <v>45630</v>
@@ -1457,10 +1418,10 @@
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="26" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
@@ -1470,10 +1431,10 @@
     </row>
     <row r="6" spans="1:27" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="25">
         <v>4</v>
@@ -1488,37 +1449,37 @@
         <v>45352</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="L6" s="26" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="O6" s="36" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="V6" s="6"/>
     </row>
     <row r="7" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>2</v>
@@ -1527,20 +1488,20 @@
         <v>3</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="27">
         <v>45352</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="J7" s="26">
         <v>5.5</v>
@@ -1551,10 +1512,10 @@
     </row>
     <row r="8" spans="1:27" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="25">
         <v>4</v>
@@ -1569,39 +1530,39 @@
         <v>45352</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="J8" s="26">
         <v>6</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="O8" s="36" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:27" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="25">
         <v>3</v>
@@ -1616,39 +1577,39 @@
         <v>45352</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="J9" s="26">
         <v>6</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:27" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="25">
         <v>4</v>
@@ -1663,36 +1624,36 @@
         <v>45352</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="J10" s="26">
         <v>6</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="O10" s="36" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:27" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>8</v>
@@ -1701,34 +1662,34 @@
         <v>3</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E11" s="34"/>
       <c r="F11" s="38">
         <v>45488</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
       <c r="J11" s="33"/>
       <c r="K11" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="O11" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="L11" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>12</v>
@@ -1737,36 +1698,36 @@
         <v>3</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="38">
         <v>45535</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
       <c r="K12" s="33" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="L12" s="33" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M12" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="O12" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>15</v>
@@ -1782,32 +1743,32 @@
         <v>45535</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
       <c r="K13" s="33" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="L13" s="33" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="32">
         <v>4</v>
@@ -1820,29 +1781,29 @@
         <v>45535</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
       <c r="K14" s="33" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="L14" s="33" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>16</v>
@@ -1851,49 +1812,49 @@
         <v>6</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="27">
         <v>45413</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="J15" s="26">
         <v>6.5</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="L15" s="26" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:27" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="32">
         <v>4</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E16" s="37">
         <v>45352</v>
@@ -1902,36 +1863,36 @@
         <v>45458</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="J16" s="33">
         <v>6.5</v>
       </c>
       <c r="K16" s="33" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="L16" s="33" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="O16" s="39" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C17" s="25">
         <v>5</v>
@@ -1943,39 +1904,39 @@
         <v>45488</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="J17" s="26">
         <v>6.5</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="L17" s="26" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="O17" s="36" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="32">
         <v>4</v>
@@ -1988,36 +1949,36 @@
         <v>45366</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="J18" s="33">
         <v>6</v>
       </c>
       <c r="K18" s="33" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="L18" s="33" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="O18" s="39" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>9</v>
@@ -2043,15 +2004,15 @@
       <c r="K19" s="26"/>
       <c r="L19" s="26"/>
       <c r="M19" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="O19" s="36" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="3" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>10</v>
@@ -2060,7 +2021,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E20" s="30">
         <v>45566</v>
@@ -2069,33 +2030,33 @@
         <v>45306</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="J20" s="26">
         <v>5.5</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="O20" s="36" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="3" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>9</v>
@@ -2113,33 +2074,33 @@
         <v>45488</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="J21" s="26">
         <v>5.5</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="L21" s="26" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="O21" s="36" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>11</v>
@@ -2148,47 +2109,47 @@
         <v>4</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E22" s="34"/>
       <c r="F22" s="33"/>
       <c r="G22" s="33" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="J22" s="33">
         <v>6.5</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="L22" s="33" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="O22" s="39" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C23" s="35">
         <v>6</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E23" s="34"/>
       <c r="F23" s="33"/>
@@ -2202,10 +2163,10 @@
     </row>
     <row r="24" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="35">
         <v>4</v>
@@ -2225,10 +2186,10 @@
     </row>
     <row r="25" spans="1:15" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="25">
         <v>4</v>
@@ -2248,10 +2209,10 @@
     </row>
     <row r="26" spans="1:15" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="25">
         <v>4</v>
@@ -2271,7 +2232,7 @@
     </row>
     <row r="27" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>12</v>
@@ -2280,7 +2241,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E27" s="34"/>
       <c r="F27" s="33"/>
@@ -2294,7 +2255,7 @@
     </row>
     <row r="28" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>7</v>
@@ -2303,7 +2264,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E28" s="34"/>
       <c r="F28" s="33"/>
@@ -2317,7 +2278,7 @@
     </row>
     <row r="29" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>13</v>
@@ -2326,7 +2287,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E29" s="34"/>
       <c r="F29" s="33"/>
@@ -2340,10 +2301,10 @@
     </row>
     <row r="30" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="25">
         <v>4</v>
@@ -2363,10 +2324,10 @@
     </row>
     <row r="31" spans="1:15" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="25">
         <v>4</v>
@@ -2386,16 +2347,16 @@
     </row>
     <row r="32" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="25">
         <v>4</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
@@ -2409,10 +2370,10 @@
     </row>
     <row r="33" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="32">
         <v>4</v>
@@ -2432,10 +2393,10 @@
     </row>
     <row r="34" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="25">
         <v>4</v>
@@ -2455,10 +2416,10 @@
     </row>
     <row r="35" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="32">
         <v>4</v>
@@ -2478,10 +2439,10 @@
     </row>
     <row r="36" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="32">
         <v>6</v>
@@ -2501,10 +2462,10 @@
     </row>
     <row r="37" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="32">
         <v>6</v>
@@ -2524,16 +2485,16 @@
     </row>
     <row r="38" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="32">
         <v>4</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
@@ -2547,16 +2508,16 @@
     </row>
     <row r="39" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="32">
         <v>4</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
@@ -2570,10 +2531,10 @@
     </row>
     <row r="40" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="32">
         <v>4</v>
@@ -2593,10 +2554,10 @@
     </row>
     <row r="41" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="32">
         <v>4</v>
@@ -2616,10 +2577,10 @@
     </row>
     <row r="42" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="32">
         <v>4</v>
@@ -2639,16 +2600,16 @@
     </row>
     <row r="43" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="32">
         <v>3</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
@@ -2662,16 +2623,16 @@
     </row>
     <row r="44" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="32">
         <v>3</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
@@ -2685,16 +2646,16 @@
     </row>
     <row r="45" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="25">
         <v>5</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
@@ -2708,7 +2669,7 @@
     </row>
     <row r="46" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>14</v>
@@ -2731,7 +2692,7 @@
     </row>
     <row r="47" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>15</v>
@@ -2754,10 +2715,10 @@
     </row>
     <row r="48" spans="1:15" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="32">
         <v>4</v>
@@ -2777,16 +2738,16 @@
     </row>
     <row r="49" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C49" s="25">
         <v>4</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
@@ -2800,10 +2761,10 @@
     </row>
     <row r="50" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="25">
         <v>4</v>
@@ -2823,10 +2784,10 @@
     </row>
     <row r="51" spans="1:15" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C51" s="25">
         <v>4</v>
@@ -2846,10 +2807,10 @@
     </row>
     <row r="52" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" s="25">
         <v>4</v>
@@ -2869,16 +2830,16 @@
     </row>
     <row r="53" spans="1:15" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C53" s="32">
         <v>4</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
@@ -2892,10 +2853,10 @@
     </row>
     <row r="54" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C54" s="32">
         <v>7</v>
@@ -2915,7 +2876,7 @@
     </row>
     <row r="55" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>16</v>
@@ -2924,7 +2885,7 @@
         <v>4</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E55" s="26"/>
       <c r="F55" s="26"/>
@@ -2938,16 +2899,16 @@
     </row>
     <row r="56" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C56" s="25">
         <v>4</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E56" s="26"/>
       <c r="F56" s="26"/>
@@ -2961,16 +2922,16 @@
     </row>
     <row r="57" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C57" s="32">
         <v>4</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
@@ -2984,10 +2945,10 @@
     </row>
     <row r="58" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C58" s="25">
         <v>4</v>
@@ -3007,10 +2968,10 @@
     </row>
     <row r="59" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C59" s="32">
         <v>6</v>
@@ -3030,10 +2991,10 @@
     </row>
     <row r="60" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C60" s="25">
         <v>4</v>
@@ -3053,10 +3014,10 @@
     </row>
     <row r="61" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C61" s="25">
         <v>4</v>
@@ -3076,10 +3037,10 @@
     </row>
     <row r="62" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C62" s="25">
         <v>3</v>
@@ -3099,16 +3060,16 @@
     </row>
     <row r="63" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C63" s="32">
         <v>4</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E63" s="33"/>
       <c r="F63" s="33"/>
@@ -3122,7 +3083,7 @@
     </row>
     <row r="64" spans="1:15" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>16</v>
@@ -3145,16 +3106,16 @@
     </row>
     <row r="65" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C65" s="32">
         <v>3</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E65" s="33"/>
       <c r="F65" s="33"/>
@@ -3168,10 +3129,10 @@
     </row>
     <row r="66" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C66" s="25">
         <v>4</v>
@@ -3191,10 +3152,10 @@
     </row>
     <row r="67" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C67" s="25">
         <v>4</v>
@@ -3214,7 +3175,7 @@
     </row>
     <row r="68" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>15</v>
@@ -3237,16 +3198,16 @@
     </row>
     <row r="69" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C69" s="32">
         <v>4</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E69" s="33"/>
       <c r="F69" s="33"/>
@@ -3260,16 +3221,16 @@
     </row>
     <row r="70" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C70" s="32">
         <v>4</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E70" s="33"/>
       <c r="F70" s="33"/>
@@ -3281,15 +3242,19 @@
       <c r="L70" s="33"/>
       <c r="O70" s="8"/>
     </row>
-    <row r="71" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C71" s="25"/>
-      <c r="D71" s="26"/>
+        <v>181</v>
+      </c>
+      <c r="C71" s="25">
+        <v>4</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>3</v>
+      </c>
       <c r="E71" s="26"/>
       <c r="F71" s="26"/>
       <c r="G71" s="26"/>
@@ -3302,13 +3267,17 @@
     </row>
     <row r="72" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C72" s="32"/>
-      <c r="D72" s="33"/>
+        <v>64</v>
+      </c>
+      <c r="C72" s="32">
+        <v>4</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>176</v>
+      </c>
       <c r="E72" s="33"/>
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
@@ -3321,13 +3290,17 @@
     </row>
     <row r="73" spans="1:15" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C73" s="25"/>
-      <c r="D73" s="26"/>
+        <v>65</v>
+      </c>
+      <c r="C73" s="25">
+        <v>3</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>3</v>
+      </c>
       <c r="E73" s="26"/>
       <c r="F73" s="26"/>
       <c r="G73" s="26"/>
@@ -3340,13 +3313,17 @@
     </row>
     <row r="74" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C74" s="32"/>
-      <c r="D74" s="33"/>
+        <v>66</v>
+      </c>
+      <c r="C74" s="32">
+        <v>3</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>21</v>
+      </c>
       <c r="E74" s="33"/>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
@@ -3359,13 +3336,17 @@
     </row>
     <row r="75" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C75" s="32"/>
-      <c r="D75" s="33"/>
+        <v>67</v>
+      </c>
+      <c r="C75" s="32">
+        <v>3</v>
+      </c>
+      <c r="D75" s="33" t="s">
+        <v>21</v>
+      </c>
       <c r="E75" s="33"/>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
@@ -3376,53 +3357,65 @@
       <c r="L75" s="33"/>
       <c r="O75" s="8"/>
     </row>
-    <row r="76" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B76" s="12" t="s">
+    <row r="76" spans="1:15" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="25">
+        <v>3</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="26"/>
+      <c r="O76" s="4"/>
+    </row>
+    <row r="77" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C76" s="32"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="33"/>
-      <c r="I76" s="33"/>
-      <c r="J76" s="33"/>
-      <c r="K76" s="33"/>
-      <c r="L76" s="33"/>
-      <c r="O76" s="8"/>
-    </row>
-    <row r="77" spans="1:15" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B77" s="11" t="s">
+      <c r="C77" s="32">
+        <v>4</v>
+      </c>
+      <c r="D77" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="33"/>
+      <c r="J77" s="33"/>
+      <c r="K77" s="33"/>
+      <c r="L77" s="33"/>
+      <c r="O77" s="8"/>
+    </row>
+    <row r="78" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C77" s="25"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="26"/>
-      <c r="L77" s="26"/>
-      <c r="O77" s="4"/>
-    </row>
-    <row r="78" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="33"/>
+      <c r="C78" s="32">
+        <v>3</v>
+      </c>
+      <c r="D78" s="33" t="s">
+        <v>176</v>
+      </c>
       <c r="E78" s="33"/>
       <c r="F78" s="33"/>
       <c r="G78" s="33"/>
@@ -3433,15 +3426,19 @@
       <c r="L78" s="33"/>
       <c r="O78" s="8"/>
     </row>
-    <row r="79" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C79" s="25"/>
-      <c r="D79" s="26"/>
+        <v>71</v>
+      </c>
+      <c r="C79" s="25">
+        <v>3</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>176</v>
+      </c>
       <c r="E79" s="26"/>
       <c r="F79" s="26"/>
       <c r="G79" s="26"/>
@@ -3454,13 +3451,17 @@
     </row>
     <row r="80" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C80" s="32"/>
-      <c r="D80" s="33"/>
+        <v>72</v>
+      </c>
+      <c r="C80" s="32">
+        <v>4</v>
+      </c>
+      <c r="D80" s="33" t="s">
+        <v>176</v>
+      </c>
       <c r="E80" s="33"/>
       <c r="F80" s="33"/>
       <c r="G80" s="33"/>
@@ -3471,34 +3472,42 @@
       <c r="L80" s="33"/>
       <c r="O80" s="8"/>
     </row>
-    <row r="81" spans="1:15" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C81" s="25"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="26"/>
-      <c r="K81" s="26"/>
-      <c r="L81" s="26"/>
-      <c r="O81" s="4"/>
+    <row r="81" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" s="32">
+        <v>4</v>
+      </c>
+      <c r="D81" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="33"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="33"/>
+      <c r="L81" s="33"/>
+      <c r="O81" s="8"/>
     </row>
     <row r="82" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C82" s="32"/>
-      <c r="D82" s="33"/>
+        <v>74</v>
+      </c>
+      <c r="C82" s="32">
+        <v>3</v>
+      </c>
+      <c r="D82" s="33" t="s">
+        <v>176</v>
+      </c>
       <c r="E82" s="33"/>
       <c r="F82" s="33"/>
       <c r="G82" s="33"/>
@@ -3511,13 +3520,17 @@
     </row>
     <row r="83" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C83" s="32"/>
-      <c r="D83" s="33"/>
+        <v>5</v>
+      </c>
+      <c r="C83" s="32">
+        <v>3</v>
+      </c>
+      <c r="D83" s="33" t="s">
+        <v>176</v>
+      </c>
       <c r="E83" s="33"/>
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
@@ -3528,15 +3541,19 @@
       <c r="L83" s="33"/>
       <c r="O83" s="8"/>
     </row>
-    <row r="84" spans="1:15" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C84" s="25"/>
-      <c r="D84" s="26"/>
+        <v>75</v>
+      </c>
+      <c r="C84" s="25">
+        <v>5</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>176</v>
+      </c>
       <c r="E84" s="26"/>
       <c r="F84" s="26"/>
       <c r="G84" s="26"/>
@@ -3547,15 +3564,19 @@
       <c r="L84" s="26"/>
       <c r="O84" s="4"/>
     </row>
-    <row r="85" spans="1:15" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" s="7" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C85" s="32"/>
-      <c r="D85" s="33"/>
+        <v>76</v>
+      </c>
+      <c r="C85" s="32">
+        <v>3</v>
+      </c>
+      <c r="D85" s="33" t="s">
+        <v>176</v>
+      </c>
       <c r="E85" s="33"/>
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
@@ -3566,15 +3587,19 @@
       <c r="L85" s="33"/>
       <c r="O85" s="8"/>
     </row>
-    <row r="86" spans="1:15" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" s="7" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C86" s="32"/>
-      <c r="D86" s="33"/>
+        <v>77</v>
+      </c>
+      <c r="C86" s="32">
+        <v>3</v>
+      </c>
+      <c r="D86" s="33" t="s">
+        <v>176</v>
+      </c>
       <c r="E86" s="33"/>
       <c r="F86" s="33"/>
       <c r="G86" s="33"/>
@@ -3585,34 +3610,42 @@
       <c r="L86" s="33"/>
       <c r="O86" s="8"/>
     </row>
-    <row r="87" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C87" s="32"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="33"/>
-      <c r="K87" s="33"/>
-      <c r="L87" s="33"/>
-      <c r="O87" s="8"/>
-    </row>
-    <row r="88" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="25">
+        <v>3</v>
+      </c>
+      <c r="D87" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="26"/>
+      <c r="L87" s="26"/>
+      <c r="O87" s="4"/>
+    </row>
+    <row r="88" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C88" s="32"/>
-      <c r="D88" s="33"/>
+        <v>12</v>
+      </c>
+      <c r="C88" s="32">
+        <v>4</v>
+      </c>
+      <c r="D88" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="E88" s="33"/>
       <c r="F88" s="33"/>
       <c r="G88" s="33"/>
@@ -3623,15 +3656,19 @@
       <c r="L88" s="33"/>
       <c r="O88" s="8"/>
     </row>
-    <row r="89" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C89" s="32"/>
-      <c r="D89" s="33"/>
+        <v>17</v>
+      </c>
+      <c r="C89" s="32">
+        <v>4</v>
+      </c>
+      <c r="D89" s="33" t="s">
+        <v>176</v>
+      </c>
       <c r="E89" s="33"/>
       <c r="F89" s="33"/>
       <c r="G89" s="33"/>
@@ -3642,214 +3679,28 @@
       <c r="L89" s="33"/>
       <c r="O89" s="8"/>
     </row>
-    <row r="90" spans="1:15" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C90" s="25"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="26"/>
-      <c r="J90" s="26"/>
-      <c r="K90" s="26"/>
-      <c r="L90" s="26"/>
-      <c r="O90" s="4"/>
-    </row>
-    <row r="91" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C91" s="32"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="33"/>
-      <c r="I91" s="33"/>
-      <c r="J91" s="33"/>
-      <c r="K91" s="33"/>
-      <c r="L91" s="33"/>
-      <c r="O91" s="8"/>
-    </row>
-    <row r="92" spans="1:15" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" s="32"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="33"/>
-      <c r="I92" s="33"/>
-      <c r="J92" s="33"/>
-      <c r="K92" s="33"/>
-      <c r="L92" s="33"/>
-      <c r="O92" s="8"/>
-    </row>
-    <row r="93" spans="1:15" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A93" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C93" s="25"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="26"/>
-      <c r="K93" s="26"/>
-      <c r="L93" s="26"/>
-      <c r="O93" s="4"/>
-    </row>
-    <row r="94" spans="1:15" s="7" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A94" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="B94" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C94" s="32"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="33"/>
-      <c r="I94" s="33"/>
-      <c r="J94" s="33"/>
-      <c r="K94" s="33"/>
-      <c r="L94" s="33"/>
-      <c r="O94" s="8"/>
-    </row>
-    <row r="95" spans="1:15" s="7" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A95" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="B95" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C95" s="32"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="33"/>
-      <c r="F95" s="33"/>
-      <c r="G95" s="33"/>
-      <c r="H95" s="33"/>
-      <c r="I95" s="33"/>
-      <c r="J95" s="33"/>
-      <c r="K95" s="33"/>
-      <c r="L95" s="33"/>
-      <c r="O95" s="8"/>
-    </row>
-    <row r="96" spans="1:15" s="7" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A96" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C96" s="32"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="33"/>
-      <c r="I96" s="33"/>
-      <c r="J96" s="33"/>
-      <c r="K96" s="33"/>
-      <c r="L96" s="33"/>
-      <c r="O96" s="8"/>
-    </row>
-    <row r="97" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C97" s="25"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="26"/>
-      <c r="I97" s="26"/>
-      <c r="J97" s="26"/>
-      <c r="K97" s="26"/>
-      <c r="L97" s="26"/>
-      <c r="O97" s="4"/>
-    </row>
-    <row r="98" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B98" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C98" s="32"/>
-      <c r="D98" s="33"/>
-      <c r="E98" s="33"/>
-      <c r="F98" s="33"/>
-      <c r="G98" s="33"/>
-      <c r="H98" s="33"/>
-      <c r="I98" s="33"/>
-      <c r="J98" s="33"/>
-      <c r="K98" s="33"/>
-      <c r="L98" s="33"/>
-      <c r="O98" s="8"/>
-    </row>
-    <row r="99" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B99" s="12" t="s">
+    <row r="90" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="32"/>
-      <c r="D99" s="33"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="33"/>
-      <c r="G99" s="33"/>
-      <c r="H99" s="33"/>
-      <c r="I99" s="33"/>
-      <c r="J99" s="33"/>
-      <c r="K99" s="33"/>
-      <c r="L99" s="33"/>
-      <c r="O99" s="8"/>
-    </row>
-    <row r="100" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C100" s="32"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="33"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="33"/>
-      <c r="I100" s="33"/>
-      <c r="J100" s="33"/>
-      <c r="K100" s="33"/>
-      <c r="L100" s="33"/>
-      <c r="O100" s="8"/>
+      <c r="C90" s="32">
+        <v>4</v>
+      </c>
+      <c r="D90" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="33"/>
+      <c r="L90" s="33"/>
+      <c r="O90" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/universities_courses.xlsx
+++ b/universities_courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\betto\Desktop\Foreign Dreality\GUI\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1B46FA-25F2-4177-9A1E-128FAA1BA3FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C96775B-F341-4DD8-8166-19336454A3C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1" xr2:uid="{024E68FD-C9DB-4C78-9B9C-7F4EE35C43D3}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="182">
   <si>
     <t>Application Deadline</t>
   </si>
@@ -566,12 +566,6 @@
   </si>
   <si>
     <t>1st March</t>
-  </si>
-  <si>
-    <t>Application Fees (€)</t>
-  </si>
-  <si>
-    <t>Tuition Fees (€)</t>
   </si>
   <si>
     <t>Requirements</t>
@@ -583,6 +577,9 @@
 Verbal Reasoning: 145 points
 Quantitative Reasoning: 160 points
 Analytical Writing: 3 points</t>
+  </si>
+  <si>
+    <t>Tuition Fees</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1194,7 @@
   <dimension ref="A1:Y90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1253,16 +1250,16 @@
         <v>136</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J1" s="21" t="s">
         <v>129</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L1" s="21" t="s">
         <v>82</v>
@@ -1315,7 +1312,7 @@
         <v>133</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>144</v>
